--- a/Time Tables.xlsx
+++ b/Time Tables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>Figuring out sprites &amp; Main Menu Display</t>
+  </si>
+  <si>
+    <t>Trying to Redo everything in Pygame</t>
+  </si>
+  <si>
+    <t>Sprites in Pygame</t>
+  </si>
+  <si>
+    <t>Loading Door Game Concept Test</t>
+  </si>
+  <si>
+    <t>Pygame GUI</t>
+  </si>
+  <si>
+    <t>Collisions???</t>
+  </si>
+  <si>
+    <t>Redoing everything in Pygame</t>
+  </si>
+  <si>
+    <t>Full Total</t>
   </si>
 </sst>
 </file>
@@ -55,7 +76,7 @@
     <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -72,6 +93,10 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -110,27 +135,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -158,11 +167,18 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="46" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -570,74 +586,204 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44319.0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.02900462962962963</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44319.0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.08055555555555556</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.15314814814814814</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44320.0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.6298611111111111</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.7458333333333333</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.11597222222222223</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44321.0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.8201388888888889</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.15493055555555554</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44321.0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.9715277777777778</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.15083333333333335</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44322.0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.059722222222222225</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.1326388888888889</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.07291666666666667</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12">
-        <f>SUM(E2:E11)</f>
-        <v>0.5875694444</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21">
-      <c r="E21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="14">
+        <f>SUM(E2:E30)</f>
+        <v>1.264375</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Time Tables.xlsx
+++ b/Time Tables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Redoing everything in Pygame</t>
+  </si>
+  <si>
+    <t>Sprites and Animations</t>
+  </si>
+  <si>
+    <t>Settings Window &amp; Collision Fixes</t>
   </si>
   <si>
     <t>Full Total</t>
@@ -84,16 +90,18 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -139,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -167,7 +175,16 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -178,7 +195,7 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="46" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="46" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -586,203 +603,223 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>44319.0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>0.49722222222222223</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>0.5263888888888889</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <v>0.02900462962962963</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>44319.0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>0.9270833333333334</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <v>0.08055555555555556</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="12">
         <v>0.15314814814814814</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>44320.0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11">
         <v>0.6298611111111111</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>0.7458333333333333</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="12">
         <v>0.11597222222222223</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>44321.0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="11">
         <v>0.6652777777777777</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <v>0.8201388888888889</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="12">
         <v>0.15493055555555554</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>44321.0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="11">
         <v>0.8208333333333333</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="11">
         <v>0.9715277777777778</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <v>0.15083333333333335</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>44322.0</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="11">
         <v>0.059722222222222225</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <v>0.1326388888888889</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44323.0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.0375</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.07361111111111111</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.036006944444444446</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44323.0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.03350694444444444</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13" t="s">
-        <v>17</v>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="14">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17">
         <f>SUM(E2:E30)</f>
-        <v>1.264375</v>
+        <v>1.333888889</v>
       </c>
     </row>
   </sheetData>

--- a/Time Tables.xlsx
+++ b/Time Tables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>Settings Window &amp; Collision Fixes</t>
+  </si>
+  <si>
+    <t>Finishing Phase 1 Basics</t>
+  </si>
+  <si>
+    <t>Image Class</t>
+  </si>
+  <si>
+    <t>Sprite Collision and Animation</t>
+  </si>
+  <si>
+    <t>Door Game and Clean up</t>
+  </si>
+  <si>
+    <t>Back Buttons</t>
+  </si>
+  <si>
+    <t>Menu Art</t>
+  </si>
+  <si>
+    <t>Better Menus &amp; Loading Bar Game</t>
+  </si>
+  <si>
+    <t>Door Game</t>
   </si>
   <si>
     <t>Full Total</t>
@@ -105,6 +129,7 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,26 +200,28 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="46" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -603,223 +630,323 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>44319.0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="4">
         <v>0.49722222222222223</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="4">
         <v>0.5263888888888889</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>0.02900462962962963</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>44319.0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="4">
         <v>0.9270833333333334</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="4">
         <v>0.08055555555555556</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>0.15314814814814814</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>44320.0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="4">
         <v>0.6298611111111111</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="4">
         <v>0.7458333333333333</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>0.11597222222222223</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>44321.0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="4">
         <v>0.6652777777777777</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="4">
         <v>0.8201388888888889</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>0.15493055555555554</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>44321.0</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="4">
         <v>0.8208333333333333</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="4">
         <v>0.9715277777777778</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>0.15083333333333335</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>44322.0</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="4">
         <v>0.059722222222222225</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="4">
         <v>0.1326388888888889</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>44323.0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="4">
         <v>0.0375</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="4">
         <v>0.07361111111111111</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>0.036006944444444446</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>44323.0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="4">
         <v>0.49722222222222223</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="4">
         <v>0.53125</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>0.03350694444444444</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44326.0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.8493055555555555</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.06785879629629629</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44327.0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.016666666666666666</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.1835300925925926</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44327.0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.05364583333333333</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44327.0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.9840277777777777</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.0574537037037037</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44327.0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.9840277777777777</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.016898148148148148</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44328.0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.021979166666666668</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44328.0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.45625</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.07613425925925926</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14">
+        <v>44329.0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.2923611111111111</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.035416666666666666</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14">
+        <v>44329.0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.09912037037037037</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16" t="s">
-        <v>19</v>
+      <c r="A29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14">
+        <v>44329.0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.030474537037037036</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="17">
         <f>SUM(E2:E30)</f>
-        <v>1.333888889</v>
+        <v>1.976400463</v>
       </c>
     </row>
   </sheetData>

--- a/Time Tables.xlsx
+++ b/Time Tables.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEBDEV9\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -95,39 +103,62 @@
   </si>
   <si>
     <t>Full Total</t>
+  </si>
+  <si>
+    <t>Cleaning up</t>
+  </si>
+  <si>
+    <t>Polishing and Commenting</t>
+  </si>
+  <si>
+    <t>3:27PM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>3:49AM</t>
+  </si>
+  <si>
+    <t>2:02AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
-    <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -137,7 +168,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,8 +183,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -167,76 +204,98 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="46" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -426,23 +485,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.86"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,114 +523,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>44315.0</v>
+        <v>44315</v>
       </c>
       <c r="C2" s="4">
-        <v>0.007638888888888889</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>0.03680555555555556</v>
+        <v>3.6805555555555557E-2</v>
       </c>
       <c r="E2" s="5">
-        <v>0.029652777777777778</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2.9652777777777778E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>44315.0</v>
+        <v>44315</v>
       </c>
       <c r="C3" s="4">
-        <v>0.8159722222222222</v>
+        <v>0.81597222222222221</v>
       </c>
       <c r="D3" s="4">
-        <v>0.8986111111111111</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E3" s="6">
-        <v>0.08263888888888889</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.2638888888888887E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>44316.0</v>
+        <v>44316</v>
       </c>
       <c r="C4" s="4">
-        <v>0.4361111111111111</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="D4" s="4">
-        <v>0.4576388888888889</v>
+        <v>0.45763888888888887</v>
       </c>
       <c r="E4" s="6">
-        <v>0.021701388888888888</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2.1701388888888888E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>44316.0</v>
+        <v>44316</v>
       </c>
       <c r="C5" s="4">
         <v>0.49027777777777776</v>
       </c>
       <c r="D5" s="4">
-        <v>0.51875</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="E5" s="6">
-        <v>0.028275462962962964</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.8275462962962964E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>44317.0</v>
+        <v>44317</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9347222222222222</v>
+        <v>0.93472222222222223</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9944444444444445</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="E6" s="6">
-        <v>0.05997685185185185</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5.9976851851851851E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="C7" s="4">
         <v>0.20694444444444443</v>
       </c>
       <c r="D7" s="4">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E7" s="6">
-        <v>0.015370370370370371</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1.5370370370370371E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="C8" s="4">
         <v>0.23819444444444443</v>
@@ -575,185 +639,185 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="E8" s="6">
-        <v>0.02417824074074074</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2.417824074074074E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="C9" s="4">
         <v>0.49444444444444446</v>
       </c>
       <c r="D9" s="4">
-        <v>0.5597222222222222</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E9" s="6">
-        <v>0.06559027777777778</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>6.5590277777777775E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="C10" s="4">
-        <v>0.5993055555555555</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="D10" s="4">
-        <v>0.6298611111111111</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="E10" s="6">
-        <v>0.03037037037037037</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3.037037037037037E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="C11" s="4">
-        <v>0.7395833333333334</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="D11" s="4">
-        <v>0.9694444444444444</v>
+        <v>0.96944444444444444</v>
       </c>
       <c r="E11" s="6">
-        <v>0.2298148148148148</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.22981481481481481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>44319.0</v>
+        <v>44319</v>
       </c>
       <c r="C12" s="4">
         <v>0.49722222222222223</v>
       </c>
       <c r="D12" s="4">
-        <v>0.5263888888888889</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="E12" s="6">
-        <v>0.02900462962962963</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2.900462962962963E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>44319.0</v>
+        <v>44319</v>
       </c>
       <c r="C13" s="4">
-        <v>0.9270833333333334</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="D13" s="4">
-        <v>0.08055555555555556</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="E13" s="6">
         <v>0.15314814814814814</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>44320.0</v>
+        <v>44320</v>
       </c>
       <c r="C14" s="4">
-        <v>0.6298611111111111</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="D14" s="4">
-        <v>0.7458333333333333</v>
+        <v>0.74583333333333335</v>
       </c>
       <c r="E14" s="6">
         <v>0.11597222222222223</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="9">
-        <v>44321.0</v>
+        <v>44321</v>
       </c>
       <c r="C15" s="4">
-        <v>0.6652777777777777</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D15" s="4">
-        <v>0.8201388888888889</v>
+        <v>0.82013888888888886</v>
       </c>
       <c r="E15" s="6">
         <v>0.15493055555555554</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="9">
-        <v>44321.0</v>
+        <v>44321</v>
       </c>
       <c r="C16" s="4">
         <v>0.8208333333333333</v>
       </c>
       <c r="D16" s="4">
-        <v>0.9715277777777778</v>
+        <v>0.97152777777777777</v>
       </c>
       <c r="E16" s="6">
         <v>0.15083333333333335</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>44322.0</v>
+        <v>44322</v>
       </c>
       <c r="C17" s="4">
-        <v>0.059722222222222225</v>
+        <v>5.9722222222222225E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.1326388888888889</v>
+        <v>0.13263888888888889</v>
       </c>
       <c r="E17" s="6">
-        <v>0.07291666666666667</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="9">
-        <v>44323.0</v>
+        <v>44323</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>0.07361111111111111</v>
+        <v>7.3611111111111113E-2</v>
       </c>
       <c r="E18" s="6">
-        <v>0.036006944444444446</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3.6006944444444446E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="9">
-        <v>44323.0</v>
+        <v>44323</v>
       </c>
       <c r="C19" s="4">
         <v>0.49722222222222223</v>
@@ -762,100 +826,100 @@
         <v>0.53125</v>
       </c>
       <c r="E19" s="6">
-        <v>0.03350694444444444</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3.3506944444444443E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="9">
-        <v>44326.0</v>
+        <v>44326</v>
       </c>
       <c r="C20" s="4">
-        <v>0.8493055555555555</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D20" s="4">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E20" s="11">
-        <v>0.06785879629629629</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6.7858796296296292E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>44327.0</v>
+        <v>44327</v>
       </c>
       <c r="C21" s="12">
-        <v>0.016666666666666666</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="D21" s="12">
         <v>0.2</v>
       </c>
       <c r="E21" s="11">
-        <v>0.1835300925925926</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.18353009259259259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>44327.0</v>
+        <v>44327</v>
       </c>
       <c r="C22" s="12">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D22" s="12">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E22" s="11">
-        <v>0.05364583333333333</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5.364583333333333E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>44327.0</v>
+        <v>44327</v>
       </c>
       <c r="C23" s="12">
-        <v>0.9263888888888889</v>
+        <v>0.92638888888888893</v>
       </c>
       <c r="D23" s="12">
-        <v>0.9840277777777777</v>
+        <v>0.98402777777777772</v>
       </c>
       <c r="E23" s="11">
-        <v>0.0574537037037037</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5.7453703703703701E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>44327.0</v>
+        <v>44327</v>
       </c>
       <c r="C24" s="4">
-        <v>0.9840277777777777</v>
+        <v>0.98402777777777772</v>
       </c>
       <c r="D24" s="4">
-        <v>0.001388888888888889</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E24" s="11">
-        <v>0.016898148148148148</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1.6898148148148148E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>44328.0</v>
+        <v>44328</v>
       </c>
       <c r="C25" s="12">
         <v>0.3527777777777778</v>
@@ -864,92 +928,120 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11">
-        <v>0.021979166666666668</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2.1979166666666668E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>44328.0</v>
+        <v>44328</v>
       </c>
       <c r="C26" s="12">
-        <v>0.45625</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="D26" s="12">
-        <v>0.5326388888888889</v>
+        <v>0.53263888888888888</v>
       </c>
       <c r="E26" s="11">
-        <v>0.07613425925925926</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>7.6134259259259263E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="14">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="C27" s="12">
-        <v>0.2569444444444444</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D27" s="12">
-        <v>0.2923611111111111</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="E27" s="11">
-        <v>0.035416666666666666</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>3.5416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="14">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="C28" s="12">
-        <v>0.4340277777777778</v>
+        <v>0.43402777777777779</v>
       </c>
       <c r="D28" s="12">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E28" s="11">
-        <v>0.09912037037037037</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>9.9120370370370373E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="14">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="C29" s="12">
-        <v>0.9173611111111111</v>
+        <v>0.91736111111111107</v>
       </c>
       <c r="D29" s="12">
-        <v>0.9409722222222222</v>
+        <v>0.94097222222222221</v>
       </c>
       <c r="E29" s="11">
-        <v>0.030474537037037036</v>
-      </c>
-      <c r="F29" s="15" t="s">
+        <v>3.0474537037037036E-2</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20">
+        <v>44331</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="22">
+        <v>6.4386574074074068E-2</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17">
-        <f>SUM(E2:E30)</f>
-        <v>1.976400463</v>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21">
+        <v>44333</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="23">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <f>SUM(E3:E31)</f>
+        <v>2.0854398148148148</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>